--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H2">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I2">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J2">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>0.169120016284</v>
+        <v>3.051414191380444</v>
       </c>
       <c r="R2">
-        <v>1.522080146556</v>
+        <v>27.462727722424</v>
       </c>
       <c r="S2">
-        <v>0.002556782798595954</v>
+        <v>0.08351433730209978</v>
       </c>
       <c r="T2">
-        <v>0.002556782798595954</v>
+        <v>0.08351433730209977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H3">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I3">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J3">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>1.819542110308334</v>
+        <v>18.32912171839722</v>
       </c>
       <c r="R3">
-        <v>16.375878992775</v>
+        <v>164.962095465575</v>
       </c>
       <c r="S3">
-        <v>0.0275081215764846</v>
+        <v>0.5016508273329381</v>
       </c>
       <c r="T3">
-        <v>0.0275081215764846</v>
+        <v>0.5016508273329381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H4">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I4">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J4">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.007626450245666667</v>
+        <v>0.09667744735177776</v>
       </c>
       <c r="R4">
-        <v>0.068638052211</v>
+        <v>0.870097026166</v>
       </c>
       <c r="S4">
-        <v>0.0001152978649772823</v>
+        <v>0.002645970832294565</v>
       </c>
       <c r="T4">
-        <v>0.0001152978649772823</v>
+        <v>0.002645970832294565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H5">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I5">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J5">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>1.266924229713</v>
+        <v>2.983595239146778</v>
       </c>
       <c r="R5">
-        <v>11.402318067417</v>
+        <v>26.852357152321</v>
       </c>
       <c r="S5">
-        <v>0.01915355821758565</v>
+        <v>0.0816581963467629</v>
       </c>
       <c r="T5">
-        <v>0.01915355821758565</v>
+        <v>0.0816581963467629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H6">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I6">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J6">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.022041570439</v>
+        <v>0.2203138590214444</v>
       </c>
       <c r="R6">
-        <v>0.198374133951</v>
+        <v>1.982824731193</v>
       </c>
       <c r="S6">
-        <v>0.000333227901644945</v>
+        <v>0.006029783169593372</v>
       </c>
       <c r="T6">
-        <v>0.000333227901644945</v>
+        <v>0.006029783169593371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H7">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I7">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J7">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.03541548736533334</v>
+        <v>0.2877430321125555</v>
       </c>
       <c r="R7">
-        <v>0.318739386288</v>
+        <v>2.589687289013</v>
       </c>
       <c r="S7">
-        <v>0.0005354168648347231</v>
+        <v>0.00787525623629139</v>
       </c>
       <c r="T7">
-        <v>0.0005354168648347231</v>
+        <v>0.007875256236291388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H8">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I8">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J8">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N8">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q8">
-        <v>1.703627163078667</v>
+        <v>0.7943331853342221</v>
       </c>
       <c r="R8">
-        <v>15.332644467708</v>
+        <v>7.148998668008</v>
       </c>
       <c r="S8">
-        <v>0.0257557013148919</v>
+        <v>0.02174015240462735</v>
       </c>
       <c r="T8">
-        <v>0.0257557013148919</v>
+        <v>0.02174015240462734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H9">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I9">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J9">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q9">
-        <v>18.32912171839722</v>
+        <v>4.771371149836111</v>
       </c>
       <c r="R9">
-        <v>164.962095465575</v>
+        <v>42.942340348525</v>
       </c>
       <c r="S9">
-        <v>0.2771025225321194</v>
+        <v>0.130587942052092</v>
       </c>
       <c r="T9">
-        <v>0.2771025225321194</v>
+        <v>0.130587942052092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H10">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I10">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J10">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N10">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q10">
-        <v>0.07682489679144444</v>
+        <v>0.02516672594688889</v>
       </c>
       <c r="R10">
-        <v>0.691424071123</v>
+        <v>0.226500533522</v>
       </c>
       <c r="S10">
-        <v>0.001161450778779625</v>
+        <v>0.0006887896259560717</v>
       </c>
       <c r="T10">
-        <v>0.001161450778779625</v>
+        <v>0.0006887896259560717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H11">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I11">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J11">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N11">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q11">
-        <v>12.762336349809</v>
+        <v>0.7766787992118889</v>
       </c>
       <c r="R11">
-        <v>114.861027148281</v>
+        <v>6.990109192907</v>
       </c>
       <c r="S11">
-        <v>0.1929429925922648</v>
+        <v>0.02125696845613327</v>
       </c>
       <c r="T11">
-        <v>0.1929429925922648</v>
+        <v>0.02125696845613327</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H12">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I12">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J12">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N12">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O12">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P12">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q12">
-        <v>0.2220353269936666</v>
+        <v>0.05735131268122223</v>
       </c>
       <c r="R12">
-        <v>1.998317942943</v>
+        <v>0.516161814131</v>
       </c>
       <c r="S12">
-        <v>0.003356764723725626</v>
+        <v>0.00156965150306618</v>
       </c>
       <c r="T12">
-        <v>0.003356764723725626</v>
+        <v>0.00156965150306618</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H13">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I13">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J13">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N13">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q13">
-        <v>0.3567572165315556</v>
+        <v>0.07490423289677778</v>
       </c>
       <c r="R13">
-        <v>3.210814948784</v>
+        <v>0.6741380960709999</v>
       </c>
       <c r="S13">
-        <v>0.005393511274094817</v>
+        <v>0.002050058425095856</v>
       </c>
       <c r="T13">
-        <v>0.005393511274094816</v>
+        <v>0.002050058425095856</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H14">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I14">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J14">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N14">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q14">
-        <v>0.9391919638520001</v>
+        <v>0.6194686452631111</v>
       </c>
       <c r="R14">
-        <v>8.452727674668001</v>
+        <v>5.575217807367999</v>
       </c>
       <c r="S14">
-        <v>0.01419885067728395</v>
+        <v>0.01695427436062812</v>
       </c>
       <c r="T14">
-        <v>0.01419885067728395</v>
+        <v>0.01695427436062812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H15">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I15">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J15">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q15">
-        <v>10.10465446634167</v>
+        <v>3.721001308780556</v>
       </c>
       <c r="R15">
-        <v>90.941890197075</v>
+        <v>33.489011779025</v>
       </c>
       <c r="S15">
-        <v>0.1527637431273259</v>
+        <v>0.1018403071208334</v>
       </c>
       <c r="T15">
-        <v>0.1527637431273259</v>
+        <v>0.1018403071208334</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H16">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I16">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J16">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N16">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q16">
-        <v>0.04235276782033334</v>
+        <v>0.01962652186244444</v>
       </c>
       <c r="R16">
-        <v>0.381174910383</v>
+        <v>0.176638696762</v>
       </c>
       <c r="S16">
-        <v>0.0006402957533667246</v>
+        <v>0.0005371594493849103</v>
       </c>
       <c r="T16">
-        <v>0.0006402957533667246</v>
+        <v>0.0005371594493849103</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H17">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I17">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J17">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N17">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q17">
-        <v>7.035743500389001</v>
+        <v>0.6057006964274445</v>
       </c>
       <c r="R17">
-        <v>63.321691503501</v>
+        <v>5.451306267847</v>
       </c>
       <c r="S17">
-        <v>0.1063674682180702</v>
+        <v>0.01657745854641716</v>
       </c>
       <c r="T17">
-        <v>0.1063674682180702</v>
+        <v>0.01657745854641715</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H18">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I18">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J18">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N18">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O18">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P18">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q18">
-        <v>0.122405770067</v>
+        <v>0.04472599235011111</v>
       </c>
       <c r="R18">
-        <v>1.101651930603</v>
+        <v>0.402533931151</v>
       </c>
       <c r="S18">
-        <v>0.001850549534187846</v>
+        <v>0.00122410835665954</v>
       </c>
       <c r="T18">
-        <v>0.001850549534187846</v>
+        <v>0.00122410835665954</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H19">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I19">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J19">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N19">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q19">
-        <v>0.1966765487626667</v>
+        <v>0.05841481198788889</v>
       </c>
       <c r="R19">
-        <v>1.770088938864</v>
+        <v>0.5257333078909999</v>
       </c>
       <c r="S19">
-        <v>0.002973386757006709</v>
+        <v>0.001598758479126132</v>
       </c>
       <c r="T19">
-        <v>0.002973386757006708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.28529</v>
-      </c>
-      <c r="I20">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J20">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5.855348</v>
-      </c>
-      <c r="N20">
-        <v>17.566044</v>
-      </c>
-      <c r="O20">
-        <v>0.05092948808292105</v>
-      </c>
-      <c r="P20">
-        <v>0.05092948808292105</v>
-      </c>
-      <c r="Q20">
-        <v>0.5568240769733334</v>
-      </c>
-      <c r="R20">
-        <v>5.01141669276</v>
-      </c>
-      <c r="S20">
-        <v>0.00841815329214924</v>
-      </c>
-      <c r="T20">
-        <v>0.00841815329214924</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.28529</v>
-      </c>
-      <c r="I21">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J21">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>62.99699166666667</v>
-      </c>
-      <c r="N21">
-        <v>188.990975</v>
-      </c>
-      <c r="O21">
-        <v>0.547944295769846</v>
-      </c>
-      <c r="P21">
-        <v>0.547944295769846</v>
-      </c>
-      <c r="Q21">
-        <v>5.990803917527778</v>
-      </c>
-      <c r="R21">
-        <v>53.91723525774999</v>
-      </c>
-      <c r="S21">
-        <v>0.09056990853391604</v>
-      </c>
-      <c r="T21">
-        <v>0.09056990853391604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.28529</v>
-      </c>
-      <c r="I22">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J22">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.2640463333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.7921389999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.002296660179179615</v>
-      </c>
-      <c r="P22">
-        <v>0.002296660179179615</v>
-      </c>
-      <c r="Q22">
-        <v>0.02510992614555555</v>
-      </c>
-      <c r="R22">
-        <v>0.22598933531</v>
-      </c>
-      <c r="S22">
-        <v>0.0003796157820559829</v>
-      </c>
-      <c r="T22">
-        <v>0.0003796157820559829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.28529</v>
-      </c>
-      <c r="I23">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J23">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>43.864011</v>
-      </c>
-      <c r="N23">
-        <v>131.592033</v>
-      </c>
-      <c r="O23">
-        <v>0.3815267043894944</v>
-      </c>
-      <c r="P23">
-        <v>0.3815267043894944</v>
-      </c>
-      <c r="Q23">
-        <v>4.17132123273</v>
-      </c>
-      <c r="R23">
-        <v>37.54189109457</v>
-      </c>
-      <c r="S23">
-        <v>0.06306268536157381</v>
-      </c>
-      <c r="T23">
-        <v>0.06306268536157381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.28529</v>
-      </c>
-      <c r="I24">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J24">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.763133</v>
-      </c>
-      <c r="N24">
-        <v>2.289399</v>
-      </c>
-      <c r="O24">
-        <v>0.006637687978440185</v>
-      </c>
-      <c r="P24">
-        <v>0.006637687978440185</v>
-      </c>
-      <c r="Q24">
-        <v>0.07257140452333333</v>
-      </c>
-      <c r="R24">
-        <v>0.6531426407099999</v>
-      </c>
-      <c r="S24">
-        <v>0.001097145818881768</v>
-      </c>
-      <c r="T24">
-        <v>0.001097145818881768</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.28529</v>
-      </c>
-      <c r="I25">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J25">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.226170666666667</v>
-      </c>
-      <c r="N25">
-        <v>3.678512</v>
-      </c>
-      <c r="O25">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="P25">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="Q25">
-        <v>0.1166047431644444</v>
-      </c>
-      <c r="R25">
-        <v>1.04944268848</v>
-      </c>
-      <c r="S25">
-        <v>0.00176284870418237</v>
-      </c>
-      <c r="T25">
-        <v>0.001762848704182369</v>
+        <v>0.001598758479126132</v>
       </c>
     </row>
   </sheetData>
